--- a/reclamos2025.xlsx
+++ b/reclamos2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Escritorio\Metricas 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Escritorio\comu2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ED0A7B-B3CE-4461-BD03-60DFC872CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF7D928-6616-4BBC-9A81-96566A9E2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A07CBD02-5FBD-4DB0-BE49-D6D5FD813D2D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="924">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -2569,6 +2569,237 @@
   </si>
   <si>
     <t>ZANICHELI Y JUAN PABLO II</t>
+  </si>
+  <si>
+    <t>SOL CAROCELLA</t>
+  </si>
+  <si>
+    <t>CALLE DR BRANDI 513</t>
+  </si>
+  <si>
+    <t>TROPERO SOSA 275 CASI IRUSTA</t>
+  </si>
+  <si>
+    <t>ISABELITA ISABELITA</t>
+  </si>
+  <si>
+    <t>BRUNO MORON 2920</t>
+  </si>
+  <si>
+    <t>BAJITOS</t>
+  </si>
+  <si>
+    <t>SALMON 226</t>
+  </si>
+  <si>
+    <t>DIEGO CORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE SAN ZENON LOTE 6 </t>
+  </si>
+  <si>
+    <t>LAURA TOLEDO</t>
+  </si>
+  <si>
+    <t>CALLE SERPA CASI RUTA 20</t>
+  </si>
+  <si>
+    <t>GISE DIFRANSISCO</t>
+  </si>
+  <si>
+    <t>MARCELO NOTTO</t>
+  </si>
+  <si>
+    <t>GISELA LABARI</t>
+  </si>
+  <si>
+    <t>VIEYTES Y SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>EDUARDO GOMEZ</t>
+  </si>
+  <si>
+    <t>NORA MARADONA</t>
+  </si>
+  <si>
+    <t>B CICERONE CALLE AZCUENAGA</t>
+  </si>
+  <si>
+    <t>BETY FANIN</t>
+  </si>
+  <si>
+    <t>B CANCILLER CALLE FERNANDEZ PELAEZ</t>
+  </si>
+  <si>
+    <t>MAURICIO GOMEZ</t>
+  </si>
+  <si>
+    <t>B OLIVOS DE PALMA</t>
+  </si>
+  <si>
+    <t>EMI LOPEZ</t>
+  </si>
+  <si>
+    <t>CALLE 25 DE MAYO 187</t>
+  </si>
+  <si>
+    <t>EMANUEL TIZIANO</t>
+  </si>
+  <si>
+    <t>PROVINCIAS UNIDAS M F CASA 15</t>
+  </si>
+  <si>
+    <t>MARILEN CLUT</t>
+  </si>
+  <si>
+    <t>25 DE MAYO ESTE 183 ENTRE LEMOS Y CORRIENTES</t>
+  </si>
+  <si>
+    <t>GABRIELA MISTRAL 130 B CANDELARIA</t>
+  </si>
+  <si>
+    <t>MIRIAM CARMONA</t>
+  </si>
+  <si>
+    <t>B EL MIRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRGEN DE LA MERCED 1084 B CIANCIO </t>
+  </si>
+  <si>
+    <t>CLARISA CUELLO</t>
+  </si>
+  <si>
+    <t>ENTRE MUÑIZ Y REPUBLICA SIRIA</t>
+  </si>
+  <si>
+    <t>TANO Y ROBERTO</t>
+  </si>
+  <si>
+    <t>MARIELA LOURDES</t>
+  </si>
+  <si>
+    <t>BARCALA 676</t>
+  </si>
+  <si>
+    <t>MONICA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>B CONDOR Y ANDES MNZA C CASA 38</t>
+  </si>
+  <si>
+    <t>GIME TORRES</t>
+  </si>
+  <si>
+    <t>CALLE SAN MARTIN 624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE  CELINA ALVAREZ </t>
+  </si>
+  <si>
+    <t>PATRICIA SPINA</t>
+  </si>
+  <si>
+    <t>BANDERA DE LOS ANDES 127</t>
+  </si>
+  <si>
+    <t>AGOS DRAGOTTA</t>
+  </si>
+  <si>
+    <t>LIBERTA 733, ENTRE SUAREZ Y NERVIANI</t>
+  </si>
+  <si>
+    <t>ANA MARIA PINTO AZURA</t>
+  </si>
+  <si>
+    <t>CALLE SAN ISIDRO Y ESPALDEROS, ZONA VERDE</t>
+  </si>
+  <si>
+    <t>Limpieza y Luminarias</t>
+  </si>
+  <si>
+    <t>LOURDES JOFRE</t>
+  </si>
+  <si>
+    <t>LOTE MAMONI, CALLE LOS DURAZNOS</t>
+  </si>
+  <si>
+    <t>BARBY VERGARA</t>
+  </si>
+  <si>
+    <t>BARRIO CANALES MENDOCINOS ME C4</t>
+  </si>
+  <si>
+    <t>PATRI LINARDELI</t>
+  </si>
+  <si>
+    <t>ADRIANO GOMEZ 206</t>
+  </si>
+  <si>
+    <t>MARCELO NOTTO - ARTURO</t>
+  </si>
+  <si>
+    <t>MIRIAM BONACORSO</t>
+  </si>
+  <si>
+    <t>LUNLUNTA</t>
+  </si>
+  <si>
+    <t>MONICA RINALDI</t>
+  </si>
+  <si>
+    <t>B LOS CEREZOS MF CASA1</t>
+  </si>
+  <si>
+    <t>MARCELO RIPARI</t>
+  </si>
+  <si>
+    <t>PLAZA B TEJAS ROJAS</t>
+  </si>
+  <si>
+    <t>SABRI DIAZ</t>
+  </si>
+  <si>
+    <t>CALLEJON QUE COSTEA CRISTALERIA, ENTRE CALLE GUTIERREZ Y GUISASOLA</t>
+  </si>
+  <si>
+    <t>MARINA BLASCO</t>
+  </si>
+  <si>
+    <t>PALMA 2658</t>
+  </si>
+  <si>
+    <t>IVI OLARTE</t>
+  </si>
+  <si>
+    <t>MANUEL SAENZ AL 706</t>
+  </si>
+  <si>
+    <t>PERLA CABRERA</t>
+  </si>
+  <si>
+    <t>B EL ROSAL 1 ME CASA3</t>
+  </si>
+  <si>
+    <t>OLGA MATIUSSO</t>
+  </si>
+  <si>
+    <t>CORRIENTES 14</t>
+  </si>
+  <si>
+    <t>MARIAN CUETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B COOPERATIVA </t>
+  </si>
+  <si>
+    <t>ANA MARIA</t>
+  </si>
+  <si>
+    <t>CALLE RIVADAVIA 1207</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2809,6 +3040,10 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3123,10 +3358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1506E4B1-F065-416A-BE17-2BD1F10358CA}">
-  <dimension ref="A1:M390"/>
+  <dimension ref="A1:M429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L360" sqref="L360"/>
+    <sheetView tabSelected="1" topLeftCell="F401" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -3134,7 +3369,9 @@
     <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.28515625" style="2"/>
+    <col min="4" max="9" width="17.28515625" style="2"/>
+    <col min="10" max="10" width="20.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="17.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -19125,37 +19362,1636 @@
         <v>161</v>
       </c>
     </row>
+    <row r="391" spans="1:13" s="27" customFormat="1">
+      <c r="A391" s="25">
+        <v>45964</v>
+      </c>
+      <c r="B391" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="C391" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="D391" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F391" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G391" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H391" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I391" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J391" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K391" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L391" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M391" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" s="27" customFormat="1">
+      <c r="A392" s="25">
+        <v>45964</v>
+      </c>
+      <c r="B392" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>849</v>
+      </c>
+      <c r="D392" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E392" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F392" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G392" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H392" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I392" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J392" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K392" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L392" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M392" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" s="27" customFormat="1">
+      <c r="A393" s="25">
+        <v>45965</v>
+      </c>
+      <c r="B393" s="26" t="s">
+        <v>850</v>
+      </c>
+      <c r="C393" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="D393" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E393" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F393" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G393" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H393" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I393" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J393" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K393" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L393" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M393" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" s="27" customFormat="1">
+      <c r="A394" s="25">
+        <v>45965</v>
+      </c>
+      <c r="B394" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="C394" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="D394" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E394" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F394" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H394" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I394" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J394" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K394" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L394" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M394" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" s="27" customFormat="1">
+      <c r="A395" s="25">
+        <v>45965</v>
+      </c>
+      <c r="B395" s="26" t="s">
+        <v>854</v>
+      </c>
+      <c r="C395" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="D395" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F395" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G395" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H395" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I395" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J395" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K395" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L395" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M395" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" s="27" customFormat="1">
+      <c r="A396" s="25">
+        <v>45966</v>
+      </c>
+      <c r="B396" s="26" t="s">
+        <v>856</v>
+      </c>
+      <c r="C396" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="D396" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F396" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G396" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H396" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I396" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J396" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K396" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L396" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M396" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" s="27" customFormat="1">
+      <c r="A397" s="25">
+        <v>45966</v>
+      </c>
+      <c r="B397" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="C397" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="D397" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F397" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G397" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H397" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I397" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J397" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="K397" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L397" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M397" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" s="27" customFormat="1">
+      <c r="A398" s="25">
+        <v>45966</v>
+      </c>
+      <c r="B398" s="26" t="s">
+        <v>860</v>
+      </c>
+      <c r="C398" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="D398" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F398" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G398" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H398" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I398" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J398" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K398" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L398" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M398" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" s="27" customFormat="1">
+      <c r="A399" s="25">
+        <v>45967</v>
+      </c>
+      <c r="B399" s="26" t="s">
+        <v>862</v>
+      </c>
+      <c r="C399" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D399" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F399" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H399" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I399" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J399" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K399" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L399" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M399" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" s="27" customFormat="1">
+      <c r="A400" s="25">
+        <v>45967</v>
+      </c>
+      <c r="B400" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="C400" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="D400" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F400" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G400" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H400" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I400" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J400" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K400" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L400" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M400" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" s="27" customFormat="1">
+      <c r="A401" s="25">
+        <v>45968</v>
+      </c>
+      <c r="B401" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="C401" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="D401" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F401" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G401" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H401" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I401" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J401" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K401" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L401" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M401" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" s="27" customFormat="1">
+      <c r="A402" s="25">
+        <v>45968</v>
+      </c>
+      <c r="B402" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="C402" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="D402" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F402" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G402" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H402" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I402" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J402" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K402" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L402" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M402" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" s="27" customFormat="1">
+      <c r="A403" s="25">
+        <v>45968</v>
+      </c>
+      <c r="B403" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="C403" s="26" t="s">
+        <v>870</v>
+      </c>
+      <c r="D403" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F403" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G403" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H403" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I403" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J403" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K403" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L403" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M403" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" s="27" customFormat="1">
+      <c r="A404" s="25">
+        <v>45968</v>
+      </c>
+      <c r="B404" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="C404" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="D404" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E404" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F404" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G404" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H404" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I404" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J404" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K404" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L404" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M404" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" s="27" customFormat="1">
+      <c r="A405" s="28">
+        <v>45971</v>
+      </c>
+      <c r="B405" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="C405" s="26" t="s">
+        <v>874</v>
+      </c>
+      <c r="D405" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E405" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F405" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G405" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H405" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I405" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J405" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K405" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L405" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M405" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" s="27" customFormat="1">
+      <c r="A406" s="28">
+        <v>45971</v>
+      </c>
+      <c r="B406" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C406" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="D406" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E406" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F406" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G406" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H406" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I406" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J406" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K406" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L406" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M406" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" s="27" customFormat="1">
+      <c r="A407" s="28">
+        <v>45973</v>
+      </c>
+      <c r="B407" s="26" t="s">
+        <v>876</v>
+      </c>
+      <c r="C407" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="D407" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E407" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F407" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G407" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H407" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I407" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J407" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K407" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L407" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M407" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" s="27" customFormat="1">
+      <c r="A408" s="28">
+        <v>45974</v>
+      </c>
+      <c r="B408" s="26" t="s">
+        <v>878</v>
+      </c>
+      <c r="C408" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="D408" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E408" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F408" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G408" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H408" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I408" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J408" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K408" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L408" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M408" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" s="27" customFormat="1">
+      <c r="A409" s="28">
+        <v>45974</v>
+      </c>
+      <c r="B409" s="26" t="s">
+        <v>880</v>
+      </c>
+      <c r="C409" s="26" t="s">
+        <v>881</v>
+      </c>
+      <c r="D409" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E409" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F409" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G409" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H409" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I409" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J409" s="26" t="s">
+        <v>882</v>
+      </c>
+      <c r="K409" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L409" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M409" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" s="27" customFormat="1">
+      <c r="A410" s="28">
+        <v>45975</v>
+      </c>
+      <c r="B410" s="26" t="s">
+        <v>883</v>
+      </c>
+      <c r="C410" s="26" t="s">
+        <v>884</v>
+      </c>
+      <c r="D410" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E410" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F410" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G410" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H410" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I410" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J410" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K410" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="L410" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M410" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" s="27" customFormat="1">
+      <c r="A411" s="28">
+        <v>45978</v>
+      </c>
+      <c r="B411" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="C411" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="D411" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F411" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G411" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H411" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I411" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J411" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K411" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L411" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M411" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" s="27" customFormat="1">
+      <c r="A412" s="28">
+        <v>45980</v>
+      </c>
+      <c r="B412" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="C412" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="D412" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E412" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F412" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G412" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H412" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I412" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J412" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K412" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L412" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M412" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" s="27" customFormat="1">
+      <c r="A413" s="28">
+        <v>45981</v>
+      </c>
+      <c r="B413" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="C413" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="D413" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F413" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G413" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H413" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I413" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J413" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K413" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L413" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M413" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" s="27" customFormat="1">
+      <c r="A414" s="28">
+        <v>45985</v>
+      </c>
+      <c r="B414" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="C414" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="D414" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E414" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F414" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G414" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H414" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I414" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J414" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K414" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="L414" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M414" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" s="27" customFormat="1">
+      <c r="A415" s="28">
+        <v>45986</v>
+      </c>
+      <c r="B415" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="C415" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="D415" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F415" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G415" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H415" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I415" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J415" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K415" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L415" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M415" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" s="27" customFormat="1">
+      <c r="A416" s="28">
+        <v>45986</v>
+      </c>
+      <c r="B416" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="C416" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="D416" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F416" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G416" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H416" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="I416" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J416" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K416" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L416" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M416" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" s="27" customFormat="1">
+      <c r="A417" s="28">
+        <v>45986</v>
+      </c>
+      <c r="B417" s="26" t="s">
+        <v>897</v>
+      </c>
+      <c r="C417" s="26" t="s">
+        <v>898</v>
+      </c>
+      <c r="D417" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F417" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G417" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H417" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I417" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J417" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K417" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L417" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M417" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" s="27" customFormat="1">
+      <c r="A418" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B418" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="C418" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="D418" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E418" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F418" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G418" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H418" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I418" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J418" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K418" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L418" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M418" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" s="27" customFormat="1">
+      <c r="A419" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B419" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="C419" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="D419" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F419" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G419" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H419" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="I419" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J419" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="K419" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L419" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M419" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" s="27" customFormat="1">
+      <c r="A420" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B420" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="C420" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="D420" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E420" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F420" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G420" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H420" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I420" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J420" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K420" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L420" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M420" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" s="27" customFormat="1">
+      <c r="A421" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B421" s="26" t="s">
+        <v>906</v>
+      </c>
+      <c r="C421" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="D421" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E421" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F421" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G421" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H421" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I421" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J421" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K421" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L421" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M421" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" s="27" customFormat="1">
+      <c r="A422" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B422" s="26" t="s">
+        <v>908</v>
+      </c>
+      <c r="C422" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="D422" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E422" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F422" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G422" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H422" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I422" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J422" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K422" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L422" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M422" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" s="27" customFormat="1">
+      <c r="A423" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B423" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="C423" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="D423" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E423" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F423" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G423" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H423" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="I423" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J423" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K423" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L423" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M423" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" s="27" customFormat="1">
+      <c r="A424" s="28">
+        <v>45987</v>
+      </c>
+      <c r="B424" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="C424" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="D424" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E424" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F424" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G424" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H424" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I424" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J424" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K424" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L424" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M424" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" s="27" customFormat="1">
+      <c r="A425" s="28">
+        <v>45988</v>
+      </c>
+      <c r="B425" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="C425" s="26" t="s">
+        <v>915</v>
+      </c>
+      <c r="D425" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E425" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F425" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G425" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H425" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I425" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J425" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K425" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L425" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M425" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" s="27" customFormat="1">
+      <c r="A426" s="28">
+        <v>45988</v>
+      </c>
+      <c r="B426" s="26" t="s">
+        <v>916</v>
+      </c>
+      <c r="C426" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="D426" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E426" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F426" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G426" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H426" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I426" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J426" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K426" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L426" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M426" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" s="27" customFormat="1">
+      <c r="A427" s="28">
+        <v>45988</v>
+      </c>
+      <c r="B427" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="C427" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="D427" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E427" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F427" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G427" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H427" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I427" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J427" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K427" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L427" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M427" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" s="27" customFormat="1">
+      <c r="A428" s="28">
+        <v>45989</v>
+      </c>
+      <c r="B428" s="26" t="s">
+        <v>920</v>
+      </c>
+      <c r="C428" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="D428" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E428" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F428" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G428" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H428" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I428" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J428" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="K428" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L428" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M428" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" s="27" customFormat="1" ht="21" customHeight="1">
+      <c r="A429" s="28">
+        <v>45989</v>
+      </c>
+      <c r="B429" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="C429" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="D429" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E429" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F429" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G429" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H429" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I429" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J429" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K429" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L429" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M429" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M390" xr:uid="{1506E4B1-F065-416A-BE17-2BD1F10358CA}"/>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L295:L390 L2:L270" xr:uid="{C8B971C7-CD37-4B1D-A6B9-43EF7926A1CE}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L295:L429 L2:L270" xr:uid="{C8B971C7-CD37-4B1D-A6B9-43EF7926A1CE}">
       <formula1>"Matías,Muni,EN REDES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K295:K390 K2:K270" xr:uid="{C41CBFCB-4F79-454A-B8B9-3BF5B98A7DB0}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K295:K429 K2:K270" xr:uid="{C41CBFCB-4F79-454A-B8B9-3BF5B98A7DB0}">
       <formula1>"Derivado,Reiterado,Solucionado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I295:I390 I2:I270" xr:uid="{F78E041E-8F9C-4354-BF1D-3254876EA977}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I295:I429 I2:I270" xr:uid="{F78E041E-8F9C-4354-BF1D-3254876EA977}">
       <formula1>"Arbolado Público,Sanitarios,Obras Públicas,Servicios Públicos,Electromecánica,Desarrollo Económico,Desarrollo Social,Empleo,Licencia,Tránsito,Intendencia,Obras Privadas,Salud,Cultura,Juventud,Deportes,Discapacidad,Área de la mujer,Educación,Turismo,Adulto"&amp;"s Mayores,Fiscalización y Control,Delegación,Otro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D295:D390 D2:D270" xr:uid="{A25C7566-C9F7-4C13-8CB9-531C002C8E75}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D295:D429 D2:D270" xr:uid="{A25C7566-C9F7-4C13-8CB9-531C002C8E75}">
       <formula1>"Reclamo,Pedido,Invitación"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F295:F390 F2:F270" xr:uid="{5040DE22-AC06-4CE4-BDCF-9C166D90BB48}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F295:F429 F2:F270" xr:uid="{5040DE22-AC06-4CE4-BDCF-9C166D90BB48}">
       <formula1>"Zona Este,Zona Sur,Zona Centro,No especifica"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E295:E390 E2:E270" xr:uid="{9788F56E-EA6D-4AD0-8B99-3C14FC0334FD}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E295:E429 E2:E270" xr:uid="{9788F56E-EA6D-4AD0-8B99-3C14FC0334FD}">
       <formula1>"Gutiérrez,Maipú Centro,Luzuriaga,Beltrán,San Roque,Lunlunta,Cruz de Piedra,Coquimbito,General Ortega,Barrancas,Russell,Rodeo del Medio,No especifica"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M295:M390 M2:M270" xr:uid="{EAB8D360-102B-4431-86AC-DD7575B3399E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M295:M429 M2:M270" xr:uid="{EAB8D360-102B-4431-86AC-DD7575B3399E}">
       <formula1>"Fati,Ro,Romi,Shei,Jane,Fede,Juli"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G295:G390 G2:G270" xr:uid="{D92DE616-4297-42E1-85CC-E70DC80CCB12}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G295:G429 G2:G270" xr:uid="{D92DE616-4297-42E1-85CC-E70DC80CCB12}">
       <formula1>"Si,No llamó,No la atienden"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H210:H270" xr:uid="{798B6B2B-761B-48B3-8900-09A0ECE753C3}">
       <formula1>"Bacheo,Asfalto de calle/barrio,Falta de agua,Pérdida de agua,Cloacas,Destape de pozo séptico,Limpieza de calle,Limpieza de acequias,Recolección,Ayuda social,Luminaria quemada,Colocación de luminaria,Luminaria robada,Autos abandonados,Frigoríficos,Poda de "&amp;"árbol,Corte de árbol,Elementos en la calle,Ruidos Molestos,Fábricas o negocios,Árbol caído,Baja presión de agua,Materiales vivienda,Donación,Ayuda económica,Trabajo,Turno licencia,Ayuda social ,Camión cisterna,Otro,Limpieza y Luminarias,Mantenimiento de p"&amp;"lazas,Desinfeccion por chinche"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H295:H390" xr:uid="{D4206E5A-CFBA-46F8-BF2F-620D1194EA37}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H295:H429" xr:uid="{D4206E5A-CFBA-46F8-BF2F-620D1194EA37}">
       <formula1>"Bacheo,Asfalto de calle/barrio,Falta de agua,Pérdida de agua,Cloacas,Destape de pozo séptico,Limpieza de calle,Limpieza de acequias,Recolección,Ayuda social,Luminaria quemada,Colocación de luminaria,Luminaria robada,Autos abandonados,Frigoríficos,Poda de "&amp;"árbol,Corte de árbol,Elementos en la calle,Ruidos Molestos,Fábricas o negocios,Árbol caído,Baja presión de agua,Materiales vivienda,Donación,Ayuda económica,Trabajo,Turno licencia,Ayuda social ,Camión cisterna,Otro,Limpieza y Luminarias,Mantenimiento de p"&amp;"lazas,Desinfeccion por chinche,Desinfeccion,Agua turbia"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H209" xr:uid="{616E1590-837C-4ECF-AB2B-977D8B2E9409}">
